--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4584.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4584.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4584</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Joshua Brian Little</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,7 +661,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>15/05/2019</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -692,7 +755,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>01/08/2020</t>
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>04/08/2020</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>04/06/2021</t>
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -992,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1040,7 +1099,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>13/07/2021</t>
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1192,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>10/09/2021</t>
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4494</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1240,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>13/09/2021</t>
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4496</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1340,7 +1396,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>13/01/2022</t>
@@ -1348,7 +1403,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1388,7 +1443,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>16/01/2022</t>
@@ -1396,7 +1450,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1436,7 +1490,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>10/07/2022</t>
@@ -1444,7 +1497,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1496,7 +1549,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1548,7 +1601,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1588,7 +1641,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>18/01/2023</t>
@@ -1596,7 +1648,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4693</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1636,7 +1688,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>21/01/2023</t>
@@ -1644,7 +1695,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4694</t>
+          <t>4694</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1684,7 +1735,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>23/01/2023</t>
@@ -1692,7 +1742,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4696</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1731,7 +1781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1753,7 +1803,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1790,7 +1840,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1827,7 +1877,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1864,7 +1914,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1901,7 +1951,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1938,7 +1988,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1975,7 +2025,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2012,7 +2062,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2049,7 +2099,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2086,7 +2136,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2123,7 +2173,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2160,7 +2210,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2197,7 +2247,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2234,7 +2284,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2271,7 +2321,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4496</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2308,7 +2358,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2345,7 +2395,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2382,7 +2432,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2419,7 +2469,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2456,7 +2506,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2493,7 +2543,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2530,7 +2580,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4693</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2567,7 +2617,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4694</t>
+          <t>4694</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2604,7 +2654,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4696</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2632,6 +2682,393 @@
           <t>0/13</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4428</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.64%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.61%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4693</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4696</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4584.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4584.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2800,10 +2801,6 @@
           <t>4466</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2819,9 +2816,6 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2834,10 +2828,6 @@
           <t>4468</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2850,10 +2840,6 @@
           <t>4474</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2866,10 +2852,6 @@
           <t>4475</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2882,10 +2864,6 @@
           <t>4478</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2901,9 +2879,6 @@
       <c r="B10" t="n">
         <v>11</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2929,7 +2904,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2942,10 +2916,6 @@
           <t>4496</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2961,9 +2931,6 @@
       <c r="B13" t="n">
         <v>11</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>YES</t>
@@ -2976,10 +2943,6 @@
           <t>4520</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2992,11 +2955,290 @@
           <t>4522</t>
         </is>
       </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4693</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4694</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4696</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4427</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4428</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3004,11 +3246,16 @@
           <t>4605</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3016,11 +3263,12 @@
           <t>4608</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3028,11 +3276,16 @@
           <t>4614</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3042,9 +3295,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3052,11 +3302,16 @@
           <t>4694</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3066,9 +3321,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4584.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4584.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -662,6 +660,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -709,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>15/05/2019</t>
@@ -756,6 +756,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>01/08/2020</t>
@@ -803,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>04/08/2020</t>
@@ -954,6 +956,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>04/06/2021</t>
@@ -1053,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -1100,6 +1104,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>13/07/2021</t>
@@ -1251,6 +1256,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>10/09/2021</t>
@@ -1298,6 +1304,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>13/09/2021</t>
@@ -1397,6 +1404,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>13/01/2022</t>
@@ -1444,6 +1452,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>16/01/2022</t>
@@ -1491,6 +1500,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>10/07/2022</t>
@@ -1642,6 +1652,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>18/01/2023</t>
@@ -1689,6 +1700,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>21/01/2023</t>
@@ -1736,6 +1748,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>23/01/2023</t>
@@ -1748,7 +1761,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2687,642 +2700,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4428</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4.64%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.61%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4494</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4496</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4693</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4694</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4696</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4295</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4427</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4428</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4496</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4693</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4696</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>